--- a/medicine/Psychotrope/Einbecker_Brauhaus/Einbecker_Brauhaus.xlsx
+++ b/medicine/Psychotrope/Einbecker_Brauhaus/Einbecker_Brauhaus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’Einbecker Brauhaus est une brasserie à Einbeck, dans le Land de Basse-Saxe.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La bière à Einbeck est connue depuis 1378, dans un document relatant une vente de bière. En outre, l'origine de la bière bock est de la ville hanséatique d'Einbeck. Avec l'attribution de privilèges urbains en 1240 par les fils de Henri XII de Bavière, un droit de brassage pour les citoyens est également lié. La bière brassée au Moyen Âge est considérée comme un luxe et exporté sur de longues distances, comme en Italie. Pour obtenir la durabilité nécessaire, elle est brassée avec un moût original exceptionnellement élevé. Le résultat est une bière lourde et riche en alcool.
 La maison de Wittelsbach à Munich est fournie à partir de 1555, jusqu'à la fondation en 1573 de la première brasserie noble au château de Trausnitz. En 1614, un maître brasseur, probablement nommé Elias Pichler, est recruté d'Einbeck à la brasserie bavaroise, qui brassera désormais sa « Ainpöckisch Bier » à Munich. En bavarois, elle devient « Oanpock » et, au fil du temps, le nom de Bock.
@@ -547,7 +561,9 @@
           <t>Économie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie est une société anonyme et emploie en 2018 124 employés et 12 apprentis. Avec un volume de vente de bière supérieur à 558 241 hectolitres, elle réalise un chiffre d'affaires de 31,6 millions d'euros en 2018.
 L'action est cotée dans le segment "Mittelstandsbörse" de la bourse de Hanovre et dans le marché réglementé non officiel de la bourse de Berlin et fait partie de l'indice boursier NISAX20 de Basse-Saxe.
@@ -581,7 +597,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Einbecker Ainpöckisch Bier
 Einbecker Brauherren Alkoholfrei
